--- a/results/lr_pca_results.xlsx
+++ b/results/lr_pca_results.xlsx
@@ -11,13 +11,14 @@
     <sheet name="result" sheetId="2" r:id="rId2"/>
     <sheet name="roc" sheetId="3" r:id="rId3"/>
     <sheet name="auc" sheetId="4" r:id="rId4"/>
+    <sheet name="CVresult" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="113">
   <si>
     <t>Parameter</t>
   </si>
@@ -56,6 +57,306 @@
   </si>
   <si>
     <t>auc</t>
+  </si>
+  <si>
+    <t>mean_fit_time</t>
+  </si>
+  <si>
+    <t>mean_score_time</t>
+  </si>
+  <si>
+    <t>mean_test_score</t>
+  </si>
+  <si>
+    <t>mean_train_score</t>
+  </si>
+  <si>
+    <t>param_C</t>
+  </si>
+  <si>
+    <t>param_fit_intercept</t>
+  </si>
+  <si>
+    <t>param_penalty</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>rank_test_score</t>
+  </si>
+  <si>
+    <t>split0_test_score</t>
+  </si>
+  <si>
+    <t>split0_train_score</t>
+  </si>
+  <si>
+    <t>split1_test_score</t>
+  </si>
+  <si>
+    <t>split1_train_score</t>
+  </si>
+  <si>
+    <t>split2_test_score</t>
+  </si>
+  <si>
+    <t>split2_train_score</t>
+  </si>
+  <si>
+    <t>split3_test_score</t>
+  </si>
+  <si>
+    <t>split3_train_score</t>
+  </si>
+  <si>
+    <t>split4_test_score</t>
+  </si>
+  <si>
+    <t>split4_train_score</t>
+  </si>
+  <si>
+    <t>std_fit_time</t>
+  </si>
+  <si>
+    <t>std_score_time</t>
+  </si>
+  <si>
+    <t>std_test_score</t>
+  </si>
+  <si>
+    <t>std_train_score</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>{'C': 0.050000000000000003, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.050000000000000003, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.050000000000000003, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.050000000000000003, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.10000000000000001, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.10000000000000001, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.10000000000000001, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.10000000000000001, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.15000000000000002, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.15000000000000002, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.15000000000000002, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.15000000000000002, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.20000000000000001, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.20000000000000001, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.20000000000000001, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.20000000000000001, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.25, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.25, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.25, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.25, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.29999999999999999, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.29999999999999999, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.29999999999999999, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.29999999999999999, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.35000000000000003, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.35000000000000003, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.35000000000000003, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.35000000000000003, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.40000000000000002, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.40000000000000002, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.40000000000000002, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.40000000000000002, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.45000000000000001, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.45000000000000001, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.45000000000000001, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.45000000000000001, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.5, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.5, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.5, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.5, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.55000000000000004, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.55000000000000004, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.55000000000000004, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.55000000000000004, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.60000000000000009, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.60000000000000009, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.60000000000000009, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.60000000000000009, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.65000000000000013, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.65000000000000013, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.65000000000000013, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.65000000000000013, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.70000000000000007, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.70000000000000007, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.70000000000000007, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.70000000000000007, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.75000000000000011, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.75000000000000011, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.75000000000000011, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.75000000000000011, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.80000000000000004, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.80000000000000004, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.80000000000000004, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.80000000000000004, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.85000000000000009, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.85000000000000009, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.85000000000000009, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.85000000000000009, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.90000000000000013, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.90000000000000013, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.90000000000000013, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.90000000000000013, 'fit_intercept': False, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.95000000000000007, 'fit_intercept': True, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.95000000000000007, 'fit_intercept': True, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.95000000000000007, 'fit_intercept': False, 'penalty': 'l1'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.95000000000000007, 'fit_intercept': False, 'penalty': 'l2'}</t>
   </si>
 </sst>
 </file>
@@ -432,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.35</v>
+        <v>0.9000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -440,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -586,7 +887,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1370,7 +1671,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -1962,7 +2263,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
@@ -2642,7 +2943,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B273" t="s">
         <v>8</v>
@@ -3698,7 +3999,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B405" t="s">
         <v>9</v>
@@ -4122,7 +4423,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B458" t="s">
         <v>8</v>
@@ -8874,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.4872727272727272</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8882,7 +9183,7 @@
         <v>0.002016129032258064</v>
       </c>
       <c r="B4">
-        <v>0.4872727272727272</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8890,23 +9191,23 @@
         <v>0.002016129032258064</v>
       </c>
       <c r="B5">
-        <v>0.6054545454545455</v>
+        <v>0.6854545454545454</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.004032258064516129</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="B6">
-        <v>0.6054545454545455</v>
+        <v>0.6890909090909091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.004032258064516129</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="B7">
-        <v>0.7963636363636364</v>
+        <v>0.7363636363636363</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8914,7 +9215,7 @@
         <v>0.004032258064516129</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.7363636363636363</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8922,7 +9223,7 @@
         <v>0.004032258064516129</v>
       </c>
       <c r="B9">
-        <v>0.8036363636363636</v>
+        <v>0.9018181818181819</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8930,7 +9231,7 @@
         <v>0.006048387096774193</v>
       </c>
       <c r="B10">
-        <v>0.8036363636363636</v>
+        <v>0.9018181818181819</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8938,7 +9239,7 @@
         <v>0.006048387096774193</v>
       </c>
       <c r="B11">
-        <v>0.8618181818181818</v>
+        <v>0.9290909090909091</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8946,7 +9247,7 @@
         <v>0.008064516129032258</v>
       </c>
       <c r="B12">
-        <v>0.8618181818181818</v>
+        <v>0.9290909090909091</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8954,23 +9255,23 @@
         <v>0.008064516129032258</v>
       </c>
       <c r="B13">
-        <v>0.9018181818181819</v>
+        <v>0.9345454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.01209677419354839</v>
+        <v>0.01008064516129032</v>
       </c>
       <c r="B14">
-        <v>0.9018181818181819</v>
+        <v>0.9345454545454546</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.01209677419354839</v>
+        <v>0.01008064516129032</v>
       </c>
       <c r="B15">
-        <v>0.9036363636363637</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8978,7 +9279,7 @@
         <v>0.01411290322580645</v>
       </c>
       <c r="B16">
-        <v>0.9036363636363637</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8986,23 +9287,23 @@
         <v>0.01411290322580645</v>
       </c>
       <c r="B17">
-        <v>0.9127272727272727</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.01814516129032258</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="B18">
-        <v>0.9127272727272727</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.01814516129032258</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="B19">
-        <v>0.9181818181818182</v>
+        <v>0.9636363636363636</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9010,7 +9311,7 @@
         <v>0.02016129032258064</v>
       </c>
       <c r="B20">
-        <v>0.9181818181818182</v>
+        <v>0.9636363636363636</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9018,7 +9319,7 @@
         <v>0.02016129032258064</v>
       </c>
       <c r="B21">
-        <v>0.9254545454545454</v>
+        <v>0.9654545454545455</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9026,7 +9327,7 @@
         <v>0.02217741935483871</v>
       </c>
       <c r="B22">
-        <v>0.9254545454545454</v>
+        <v>0.9654545454545455</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9034,71 +9335,71 @@
         <v>0.02217741935483871</v>
       </c>
       <c r="B23">
-        <v>0.9345454545454546</v>
+        <v>0.9690909090909091</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.02419354838709677</v>
+        <v>0.02620967741935484</v>
       </c>
       <c r="B24">
-        <v>0.9345454545454546</v>
+        <v>0.9690909090909091</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.02419354838709677</v>
+        <v>0.02620967741935484</v>
       </c>
       <c r="B25">
-        <v>0.9563636363636364</v>
+        <v>0.9709090909090909</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.02620967741935484</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="B26">
-        <v>0.9563636363636364</v>
+        <v>0.9709090909090909</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.02620967741935484</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="B27">
-        <v>0.9618181818181818</v>
+        <v>0.9763636363636363</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.0282258064516129</v>
+        <v>0.03024193548387097</v>
       </c>
       <c r="B28">
-        <v>0.9618181818181818</v>
+        <v>0.9763636363636363</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.0282258064516129</v>
+        <v>0.03024193548387097</v>
       </c>
       <c r="B29">
-        <v>0.9636363636363636</v>
+        <v>0.9781818181818182</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.03024193548387097</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B30">
-        <v>0.9636363636363636</v>
+        <v>0.9781818181818182</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.03024193548387097</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B31">
-        <v>0.9654545454545455</v>
+        <v>0.9836363636363636</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -9106,7 +9407,7 @@
         <v>0.03427419354838709</v>
       </c>
       <c r="B32">
-        <v>0.9654545454545455</v>
+        <v>0.9836363636363636</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -9114,23 +9415,23 @@
         <v>0.03427419354838709</v>
       </c>
       <c r="B33">
-        <v>0.9672727272727273</v>
+        <v>0.9872727272727273</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.03629032258064516</v>
+        <v>0.03830645161290323</v>
       </c>
       <c r="B34">
-        <v>0.9672727272727273</v>
+        <v>0.9872727272727273</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.03629032258064516</v>
+        <v>0.03830645161290323</v>
       </c>
       <c r="B35">
-        <v>0.9872727272727273</v>
+        <v>0.9890909090909091</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -9138,7 +9439,7 @@
         <v>0.04032258064516129</v>
       </c>
       <c r="B36">
-        <v>0.9872727272727273</v>
+        <v>0.9890909090909091</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -9151,7 +9452,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.07459677419354839</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="B38">
         <v>0.990909090909091</v>
@@ -9159,7 +9460,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.07459677419354839</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="B39">
         <v>0.9927272727272727</v>
@@ -9167,7 +9468,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.2137096774193548</v>
+        <v>0.0625</v>
       </c>
       <c r="B40">
         <v>0.9927272727272727</v>
@@ -9175,7 +9476,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>0.2137096774193548</v>
+        <v>0.0625</v>
       </c>
       <c r="B41">
         <v>0.9945454545454545</v>
@@ -9199,7 +9500,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>0.3165322580645161</v>
+        <v>0.2620967741935484</v>
       </c>
       <c r="B44">
         <v>0.9963636363636363</v>
@@ -9207,7 +9508,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>0.3165322580645161</v>
+        <v>0.2620967741935484</v>
       </c>
       <c r="B45">
         <v>0.9981818181818182</v>
@@ -9215,7 +9516,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>0.7560483870967742</v>
+        <v>0.5645161290322581</v>
       </c>
       <c r="B46">
         <v>0.9981818181818182</v>
@@ -9223,7 +9524,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>0.7560483870967742</v>
+        <v>0.5645161290322581</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -9257,7 +9558,5487 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9930975073313784</v>
+        <v>0.9955755131964809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>0.01360073089599609</v>
+      </c>
+      <c r="B2">
+        <v>0.001400136947631836</v>
+      </c>
+      <c r="C2">
+        <v>0.9608859566446748</v>
+      </c>
+      <c r="D2">
+        <v>0.9614759726304867</v>
+      </c>
+      <c r="E2">
+        <v>0.05</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>61</v>
+      </c>
+      <c r="J2">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K2">
+        <v>0.9611078373600471</v>
+      </c>
+      <c r="L2">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="M2">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N2">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O2">
+        <v>0.9622863877430761</v>
+      </c>
+      <c r="P2">
+        <v>0.9764150943396226</v>
+      </c>
+      <c r="Q2">
+        <v>0.9564193168433451</v>
+      </c>
+      <c r="R2">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S2">
+        <v>0.9599764567392584</v>
+      </c>
+      <c r="T2">
+        <v>0.001854728103923079</v>
+      </c>
+      <c r="U2">
+        <v>0.0004898624411217045</v>
+      </c>
+      <c r="V2">
+        <v>0.01013838776421437</v>
+      </c>
+      <c r="W2">
+        <v>0.003632913026063835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>0.005200242996215821</v>
+      </c>
+      <c r="B3">
+        <v>0.001000165939331055</v>
+      </c>
+      <c r="C3">
+        <v>0.9033930254476908</v>
+      </c>
+      <c r="D3">
+        <v>0.9044534217955766</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>75</v>
+      </c>
+      <c r="J3">
+        <v>0.8964705882352941</v>
+      </c>
+      <c r="K3">
+        <v>0.9068945197407189</v>
+      </c>
+      <c r="L3">
+        <v>0.908235294117647</v>
+      </c>
+      <c r="M3">
+        <v>0.9045374189746611</v>
+      </c>
+      <c r="N3">
+        <v>0.908235294117647</v>
+      </c>
+      <c r="O3">
+        <v>0.9021803182086034</v>
+      </c>
+      <c r="P3">
+        <v>0.9009433962264151</v>
+      </c>
+      <c r="Q3">
+        <v>0.9045936395759717</v>
+      </c>
+      <c r="R3">
+        <v>0.9030732860520094</v>
+      </c>
+      <c r="S3">
+        <v>0.9040612124779281</v>
+      </c>
+      <c r="T3">
+        <v>0.0004001379119606201</v>
+      </c>
+      <c r="U3">
+        <v>0.0006324851001879076</v>
+      </c>
+      <c r="V3">
+        <v>0.004495469685516604</v>
+      </c>
+      <c r="W3">
+        <v>0.001503762201664309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>0.01300077438354492</v>
+      </c>
+      <c r="B4">
+        <v>0.001400089263916016</v>
+      </c>
+      <c r="C4">
+        <v>0.9608859566446748</v>
+      </c>
+      <c r="D4">
+        <v>0.9614759726304867</v>
+      </c>
+      <c r="E4">
+        <v>0.05</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4">
+        <v>61</v>
+      </c>
+      <c r="J4">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K4">
+        <v>0.9611078373600471</v>
+      </c>
+      <c r="L4">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="M4">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N4">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O4">
+        <v>0.9622863877430761</v>
+      </c>
+      <c r="P4">
+        <v>0.9764150943396226</v>
+      </c>
+      <c r="Q4">
+        <v>0.9564193168433451</v>
+      </c>
+      <c r="R4">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S4">
+        <v>0.9599764567392584</v>
+      </c>
+      <c r="T4">
+        <v>0.000632409699322999</v>
+      </c>
+      <c r="U4">
+        <v>0.0004899013824479931</v>
+      </c>
+      <c r="V4">
+        <v>0.01013838776421437</v>
+      </c>
+      <c r="W4">
+        <v>0.003632913026063835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>0.006800556182861328</v>
+      </c>
+      <c r="B5">
+        <v>0.001800012588500977</v>
+      </c>
+      <c r="C5">
+        <v>0.9029217719132894</v>
+      </c>
+      <c r="D5">
+        <v>0.9043357054918685</v>
+      </c>
+      <c r="E5">
+        <v>0.05</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>76</v>
+      </c>
+      <c r="J5">
+        <v>0.8964705882352941</v>
+      </c>
+      <c r="K5">
+        <v>0.9068945197407189</v>
+      </c>
+      <c r="L5">
+        <v>0.908235294117647</v>
+      </c>
+      <c r="M5">
+        <v>0.9045374189746611</v>
+      </c>
+      <c r="N5">
+        <v>0.908235294117647</v>
+      </c>
+      <c r="O5">
+        <v>0.9021803182086034</v>
+      </c>
+      <c r="P5">
+        <v>0.9009433962264151</v>
+      </c>
+      <c r="Q5">
+        <v>0.9045936395759717</v>
+      </c>
+      <c r="R5">
+        <v>0.900709219858156</v>
+      </c>
+      <c r="S5">
+        <v>0.9034726309593879</v>
+      </c>
+      <c r="T5">
+        <v>0.0007482390149642924</v>
+      </c>
+      <c r="U5">
+        <v>0.00039992333879854</v>
+      </c>
+      <c r="V5">
+        <v>0.00462629430427096</v>
+      </c>
+      <c r="W5">
+        <v>0.001552117306808964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>0.02820158004760742</v>
+      </c>
+      <c r="B6">
+        <v>0.001200103759765625</v>
+      </c>
+      <c r="C6">
+        <v>0.9632422243166824</v>
+      </c>
+      <c r="D6">
+        <v>0.9632431737767961</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6">
+        <v>54</v>
+      </c>
+      <c r="J6">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K6">
+        <v>0.9640542133176193</v>
+      </c>
+      <c r="L6">
+        <v>0.9529411764705882</v>
+      </c>
+      <c r="M6">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="N6">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="O6">
+        <v>0.9640542133176193</v>
+      </c>
+      <c r="P6">
+        <v>0.9787735849056604</v>
+      </c>
+      <c r="Q6">
+        <v>0.958186101295642</v>
+      </c>
+      <c r="R6">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S6">
+        <v>0.9617422012948793</v>
+      </c>
+      <c r="T6">
+        <v>0.002713136106470387</v>
+      </c>
+      <c r="U6">
+        <v>0.0003999948608169696</v>
+      </c>
+      <c r="V6">
+        <v>0.008739430256594063</v>
+      </c>
+      <c r="W6">
+        <v>0.003271275895648652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>0.006000375747680664</v>
+      </c>
+      <c r="B7">
+        <v>0.001200056076049805</v>
+      </c>
+      <c r="C7">
+        <v>0.9236569274269557</v>
+      </c>
+      <c r="D7">
+        <v>0.9258971415251134</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>73</v>
+      </c>
+      <c r="J7">
+        <v>0.9152941176470588</v>
+      </c>
+      <c r="K7">
+        <v>0.9316440777843252</v>
+      </c>
+      <c r="L7">
+        <v>0.92</v>
+      </c>
+      <c r="M7">
+        <v>0.9292869770182676</v>
+      </c>
+      <c r="N7">
+        <v>0.9223529411764706</v>
+      </c>
+      <c r="O7">
+        <v>0.9275191514437242</v>
+      </c>
+      <c r="P7">
+        <v>0.9292452830188679</v>
+      </c>
+      <c r="Q7">
+        <v>0.9193168433451119</v>
+      </c>
+      <c r="R7">
+        <v>0.9314420803782506</v>
+      </c>
+      <c r="S7">
+        <v>0.9217186580341378</v>
+      </c>
+      <c r="T7">
+        <v>0.0008946289297008262</v>
+      </c>
+      <c r="U7">
+        <v>0.000400018706226792</v>
+      </c>
+      <c r="V7">
+        <v>0.005945405385652943</v>
+      </c>
+      <c r="W7">
+        <v>0.004645626451540211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>0.01480083465576172</v>
+      </c>
+      <c r="B8">
+        <v>0.001000118255615234</v>
+      </c>
+      <c r="C8">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D8">
+        <v>0.9627720310927742</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K8">
+        <v>0.9634649381261049</v>
+      </c>
+      <c r="L8">
+        <v>0.9529411764705882</v>
+      </c>
+      <c r="M8">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="N8">
+        <v>0.96</v>
+      </c>
+      <c r="O8">
+        <v>0.9634649381261049</v>
+      </c>
+      <c r="P8">
+        <v>0.9787735849056604</v>
+      </c>
+      <c r="Q8">
+        <v>0.958186101295642</v>
+      </c>
+      <c r="R8">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S8">
+        <v>0.9605650382577987</v>
+      </c>
+      <c r="T8">
+        <v>0.0009798222229890437</v>
+      </c>
+      <c r="U8">
+        <v>9.536743164062499e-08</v>
+      </c>
+      <c r="V8">
+        <v>0.008484745731807002</v>
+      </c>
+      <c r="W8">
+        <v>0.003349586029050685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>0.005200242996215821</v>
+      </c>
+      <c r="B9">
+        <v>0.001000070571899414</v>
+      </c>
+      <c r="C9">
+        <v>0.9231856738925542</v>
+      </c>
+      <c r="D9">
+        <v>0.9260148578288213</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9">
+        <v>74</v>
+      </c>
+      <c r="J9">
+        <v>0.9152941176470588</v>
+      </c>
+      <c r="K9">
+        <v>0.9316440777843252</v>
+      </c>
+      <c r="L9">
+        <v>0.92</v>
+      </c>
+      <c r="M9">
+        <v>0.9292869770182676</v>
+      </c>
+      <c r="N9">
+        <v>0.9223529411764706</v>
+      </c>
+      <c r="O9">
+        <v>0.9275191514437242</v>
+      </c>
+      <c r="P9">
+        <v>0.9292452830188679</v>
+      </c>
+      <c r="Q9">
+        <v>0.9193168433451119</v>
+      </c>
+      <c r="R9">
+        <v>0.9290780141843972</v>
+      </c>
+      <c r="S9">
+        <v>0.922307239552678</v>
+      </c>
+      <c r="T9">
+        <v>0.0004001379119606201</v>
+      </c>
+      <c r="U9">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V9">
+        <v>0.005376083906262023</v>
+      </c>
+      <c r="W9">
+        <v>0.004544614656553331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>0.02520146369934082</v>
+      </c>
+      <c r="B10">
+        <v>0.001200056076049805</v>
+      </c>
+      <c r="C10">
+        <v>0.9651272384542884</v>
+      </c>
+      <c r="D10">
+        <v>0.9654813788725327</v>
+      </c>
+      <c r="E10">
+        <v>0.15</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>0.9694117647058823</v>
+      </c>
+      <c r="K10">
+        <v>0.9646434885091337</v>
+      </c>
+      <c r="L10">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="M10">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N10">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O10">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="P10">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q10">
+        <v>0.9599528857479388</v>
+      </c>
+      <c r="R10">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S10">
+        <v>0.9652736904061212</v>
+      </c>
+      <c r="T10">
+        <v>0.004534575985985596</v>
+      </c>
+      <c r="U10">
+        <v>0.000400018706226792</v>
+      </c>
+      <c r="V10">
+        <v>0.009336412157645729</v>
+      </c>
+      <c r="W10">
+        <v>0.003440030713342541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>0.006400394439697266</v>
+      </c>
+      <c r="B11">
+        <v>0.001000022888183594</v>
+      </c>
+      <c r="C11">
+        <v>0.941564561734213</v>
+      </c>
+      <c r="D11">
+        <v>0.9414482480741004</v>
+      </c>
+      <c r="E11">
+        <v>0.15</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>71</v>
+      </c>
+      <c r="J11">
+        <v>0.9364705882352942</v>
+      </c>
+      <c r="K11">
+        <v>0.9446081319976429</v>
+      </c>
+      <c r="L11">
+        <v>0.9341176470588235</v>
+      </c>
+      <c r="M11">
+        <v>0.9463759575721862</v>
+      </c>
+      <c r="N11">
+        <v>0.9364705882352942</v>
+      </c>
+      <c r="O11">
+        <v>0.943429581614614</v>
+      </c>
+      <c r="P11">
+        <v>0.9599056603773585</v>
+      </c>
+      <c r="Q11">
+        <v>0.934040047114252</v>
+      </c>
+      <c r="R11">
+        <v>0.9408983451536643</v>
+      </c>
+      <c r="S11">
+        <v>0.9387875220718069</v>
+      </c>
+      <c r="T11">
+        <v>0.0004899403160383115</v>
+      </c>
+      <c r="U11">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V11">
+        <v>0.009423658173989167</v>
+      </c>
+      <c r="W11">
+        <v>0.004475573130389676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>0.01860108375549317</v>
+      </c>
+      <c r="B12">
+        <v>0.001000070571899414</v>
+      </c>
+      <c r="C12">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D12">
+        <v>0.9644212384661859</v>
+      </c>
+      <c r="E12">
+        <v>0.15</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12">
+        <v>39</v>
+      </c>
+      <c r="J12">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K12">
+        <v>0.9664113140836771</v>
+      </c>
+      <c r="L12">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="M12">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N12">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O12">
+        <v>0.9652327637006483</v>
+      </c>
+      <c r="P12">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q12">
+        <v>0.9599528857479388</v>
+      </c>
+      <c r="R12">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S12">
+        <v>0.96291936433196</v>
+      </c>
+      <c r="T12">
+        <v>0.001356522356672083</v>
+      </c>
+      <c r="U12">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V12">
+        <v>0.01034380395650938</v>
+      </c>
+      <c r="W12">
+        <v>0.002715914830417058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>0.005600309371948243</v>
+      </c>
+      <c r="B13">
+        <v>0.001400041580200195</v>
+      </c>
+      <c r="C13">
+        <v>0.9410933081998115</v>
+      </c>
+      <c r="D13">
+        <v>0.9412124685893449</v>
+      </c>
+      <c r="E13">
+        <v>0.15</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13">
+        <v>72</v>
+      </c>
+      <c r="J13">
+        <v>0.9364705882352942</v>
+      </c>
+      <c r="K13">
+        <v>0.9440188568061285</v>
+      </c>
+      <c r="L13">
+        <v>0.9317647058823529</v>
+      </c>
+      <c r="M13">
+        <v>0.9457866823806718</v>
+      </c>
+      <c r="N13">
+        <v>0.9341176470588235</v>
+      </c>
+      <c r="O13">
+        <v>0.9428403064230996</v>
+      </c>
+      <c r="P13">
+        <v>0.9599056603773585</v>
+      </c>
+      <c r="Q13">
+        <v>0.9346289752650176</v>
+      </c>
+      <c r="R13">
+        <v>0.9432624113475178</v>
+      </c>
+      <c r="S13">
+        <v>0.9387875220718069</v>
+      </c>
+      <c r="T13">
+        <v>0.0004898624643296147</v>
+      </c>
+      <c r="U13">
+        <v>0.0004899403160383116</v>
+      </c>
+      <c r="V13">
+        <v>0.01015415942577492</v>
+      </c>
+      <c r="W13">
+        <v>0.004016761198016404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>0.02360134124755859</v>
+      </c>
+      <c r="B14">
+        <v>0.001000022888183594</v>
+      </c>
+      <c r="C14">
+        <v>0.9665409990574929</v>
+      </c>
+      <c r="D14">
+        <v>0.9672486494269918</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14">
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K14">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="L14">
+        <v>0.96</v>
+      </c>
+      <c r="M14">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="N14">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="O14">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="P14">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q14">
+        <v>0.9611307420494699</v>
+      </c>
+      <c r="R14">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S14">
+        <v>0.9670394349617422</v>
+      </c>
+      <c r="T14">
+        <v>0.004363765248900607</v>
+      </c>
+      <c r="U14">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V14">
+        <v>0.007646917494800689</v>
+      </c>
+      <c r="W14">
+        <v>0.003378376321080509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>0.006600379943847656</v>
+      </c>
+      <c r="B15">
+        <v>0.001200008392333984</v>
+      </c>
+      <c r="C15">
+        <v>0.9491046182846371</v>
+      </c>
+      <c r="D15">
+        <v>0.9515790634931729</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>70</v>
+      </c>
+      <c r="J15">
+        <v>0.9505882352941176</v>
+      </c>
+      <c r="K15">
+        <v>0.9522687094873306</v>
+      </c>
+      <c r="L15">
+        <v>0.9317647058823529</v>
+      </c>
+      <c r="M15">
+        <v>0.952857984678845</v>
+      </c>
+      <c r="N15">
+        <v>0.9505882352941176</v>
+      </c>
+      <c r="O15">
+        <v>0.9534472598703595</v>
+      </c>
+      <c r="P15">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="Q15">
+        <v>0.9469964664310954</v>
+      </c>
+      <c r="R15">
+        <v>0.9503546099290781</v>
+      </c>
+      <c r="S15">
+        <v>0.9523248969982343</v>
+      </c>
+      <c r="T15">
+        <v>0.0007998943542048398</v>
+      </c>
+      <c r="U15">
+        <v>0.00039992333879854</v>
+      </c>
+      <c r="V15">
+        <v>0.009798709213947453</v>
+      </c>
+      <c r="W15">
+        <v>0.002330573841386947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>0.01980118751525879</v>
+      </c>
+      <c r="B16">
+        <v>0.001200103759765625</v>
+      </c>
+      <c r="C16">
+        <v>0.9646559849198869</v>
+      </c>
+      <c r="D16">
+        <v>0.9653638705481598</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K16">
+        <v>0.9664113140836771</v>
+      </c>
+      <c r="L16">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="M16">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="N16">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O16">
+        <v>0.9664113140836771</v>
+      </c>
+      <c r="P16">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q16">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="R16">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S16">
+        <v>0.96291936433196</v>
+      </c>
+      <c r="T16">
+        <v>0.002039880796948521</v>
+      </c>
+      <c r="U16">
+        <v>0.0003999948892390431</v>
+      </c>
+      <c r="V16">
+        <v>0.009975047165211788</v>
+      </c>
+      <c r="W16">
+        <v>0.002734983615322995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>0.006400251388549804</v>
+      </c>
+      <c r="B17">
+        <v>0.001000118255615234</v>
+      </c>
+      <c r="C17">
+        <v>0.9495758718190387</v>
+      </c>
+      <c r="D17">
+        <v>0.9499294397525674</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17">
+        <v>69</v>
+      </c>
+      <c r="J17">
+        <v>0.9505882352941176</v>
+      </c>
+      <c r="K17">
+        <v>0.9481437831467295</v>
+      </c>
+      <c r="L17">
+        <v>0.9317647058823529</v>
+      </c>
+      <c r="M17">
+        <v>0.9516794342958161</v>
+      </c>
+      <c r="N17">
+        <v>0.9505882352941176</v>
+      </c>
+      <c r="O17">
+        <v>0.9516794342958161</v>
+      </c>
+      <c r="P17">
+        <v>0.964622641509434</v>
+      </c>
+      <c r="Q17">
+        <v>0.947585394581861</v>
+      </c>
+      <c r="R17">
+        <v>0.9503546099290781</v>
+      </c>
+      <c r="S17">
+        <v>0.9505591524426134</v>
+      </c>
+      <c r="T17">
+        <v>0.0007999420308134472</v>
+      </c>
+      <c r="U17">
+        <v>1.784161275279017e-07</v>
+      </c>
+      <c r="V17">
+        <v>0.01045499985336851</v>
+      </c>
+      <c r="W17">
+        <v>0.001743824369085956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>0.025201416015625</v>
+      </c>
+      <c r="B18">
+        <v>0.001400089263916016</v>
+      </c>
+      <c r="C18">
+        <v>0.9665409990574929</v>
+      </c>
+      <c r="D18">
+        <v>0.9683087202617795</v>
+      </c>
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18">
+        <v>23</v>
+      </c>
+      <c r="J18">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K18">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L18">
+        <v>0.96</v>
+      </c>
+      <c r="M18">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="N18">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="O18">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="P18">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q18">
+        <v>0.964075382803298</v>
+      </c>
+      <c r="R18">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S18">
+        <v>0.9682165979988229</v>
+      </c>
+      <c r="T18">
+        <v>0.00203960960436408</v>
+      </c>
+      <c r="U18">
+        <v>0.0004899013824479931</v>
+      </c>
+      <c r="V18">
+        <v>0.008599986364505945</v>
+      </c>
+      <c r="W18">
+        <v>0.002447594220381164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>0.006200456619262695</v>
+      </c>
+      <c r="B19">
+        <v>0.001200056076049805</v>
+      </c>
+      <c r="C19">
+        <v>0.9552309142318567</v>
+      </c>
+      <c r="D19">
+        <v>0.9568810832175908</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19">
+        <v>67</v>
+      </c>
+      <c r="J19">
+        <v>0.96</v>
+      </c>
+      <c r="K19">
+        <v>0.9569829110194461</v>
+      </c>
+      <c r="L19">
+        <v>0.9364705882352942</v>
+      </c>
+      <c r="M19">
+        <v>0.9622863877430761</v>
+      </c>
+      <c r="N19">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O19">
+        <v>0.9575721862109605</v>
+      </c>
+      <c r="P19">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="Q19">
+        <v>0.9511189634864546</v>
+      </c>
+      <c r="R19">
+        <v>0.9550827423167849</v>
+      </c>
+      <c r="S19">
+        <v>0.9564449676280165</v>
+      </c>
+      <c r="T19">
+        <v>0.0004001141020686509</v>
+      </c>
+      <c r="U19">
+        <v>0.0003998995218167223</v>
+      </c>
+      <c r="V19">
+        <v>0.01071557429754904</v>
+      </c>
+      <c r="W19">
+        <v>0.003552394399987851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>0.02100133895874023</v>
+      </c>
+      <c r="B20">
+        <v>0.0009999752044677734</v>
+      </c>
+      <c r="C20">
+        <v>0.9660697455230914</v>
+      </c>
+      <c r="D20">
+        <v>0.9658350132321816</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K20">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="L20">
+        <v>0.96</v>
+      </c>
+      <c r="M20">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="N20">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="O20">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="P20">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q20">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="R20">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S20">
+        <v>0.9640965273690406</v>
+      </c>
+      <c r="T20">
+        <v>0.002449701543064803</v>
+      </c>
+      <c r="U20">
+        <v>9.536743164062499e-08</v>
+      </c>
+      <c r="V20">
+        <v>0.009114087729721221</v>
+      </c>
+      <c r="W20">
+        <v>0.002648953313750496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>0.006200408935546875</v>
+      </c>
+      <c r="B21">
+        <v>0.001000070571899414</v>
+      </c>
+      <c r="C21">
+        <v>0.9538171536286523</v>
+      </c>
+      <c r="D21">
+        <v>0.9557029490383464</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21">
+        <v>68</v>
+      </c>
+      <c r="J21">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="K21">
+        <v>0.9558043606364172</v>
+      </c>
+      <c r="L21">
+        <v>0.9364705882352942</v>
+      </c>
+      <c r="M21">
+        <v>0.9611078373600471</v>
+      </c>
+      <c r="N21">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O21">
+        <v>0.9558043606364172</v>
+      </c>
+      <c r="P21">
+        <v>0.9669811320754716</v>
+      </c>
+      <c r="Q21">
+        <v>0.9511189634864546</v>
+      </c>
+      <c r="R21">
+        <v>0.9527186761229315</v>
+      </c>
+      <c r="S21">
+        <v>0.9546792230723955</v>
+      </c>
+      <c r="T21">
+        <v>0.0004001379119606201</v>
+      </c>
+      <c r="U21">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V21">
+        <v>0.009925037305454</v>
+      </c>
+      <c r="W21">
+        <v>0.003202946293268681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>0.03100171089172363</v>
+      </c>
+      <c r="B22">
+        <v>0.001200103759765625</v>
+      </c>
+      <c r="C22">
+        <v>0.9665409990574929</v>
+      </c>
+      <c r="D22">
+        <v>0.9685441528691957</v>
+      </c>
+      <c r="E22">
+        <v>0.3</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22">
+        <v>23</v>
+      </c>
+      <c r="J22">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K22">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L22">
+        <v>0.96</v>
+      </c>
+      <c r="M22">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="N22">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="O22">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="P22">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q22">
+        <v>0.964075382803298</v>
+      </c>
+      <c r="R22">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S22">
+        <v>0.9693937610359035</v>
+      </c>
+      <c r="T22">
+        <v>0.0083192373620715</v>
+      </c>
+      <c r="U22">
+        <v>0.0004001140736550456</v>
+      </c>
+      <c r="V22">
+        <v>0.008599986364505945</v>
+      </c>
+      <c r="W22">
+        <v>0.00248375811001079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>0.006000423431396484</v>
+      </c>
+      <c r="B23">
+        <v>0.0009999752044677734</v>
+      </c>
+      <c r="C23">
+        <v>0.9580584354382657</v>
+      </c>
+      <c r="D23">
+        <v>0.9591194268845127</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23">
+        <v>65</v>
+      </c>
+      <c r="J23">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="K23">
+        <v>0.9581614614024749</v>
+      </c>
+      <c r="L23">
+        <v>0.9364705882352942</v>
+      </c>
+      <c r="M23">
+        <v>0.9658220388921627</v>
+      </c>
+      <c r="N23">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O23">
+        <v>0.9581614614024749</v>
+      </c>
+      <c r="P23">
+        <v>0.9764150943396226</v>
+      </c>
+      <c r="Q23">
+        <v>0.9552414605418139</v>
+      </c>
+      <c r="R23">
+        <v>0.9598108747044918</v>
+      </c>
+      <c r="S23">
+        <v>0.9582107121836374</v>
+      </c>
+      <c r="T23">
+        <v>0.0006324850929980568</v>
+      </c>
+      <c r="U23">
+        <v>9.536743164062499e-08</v>
+      </c>
+      <c r="V23">
+        <v>0.01290368446024675</v>
+      </c>
+      <c r="W23">
+        <v>0.00353906170664872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>0.02180118560791016</v>
+      </c>
+      <c r="B24">
+        <v>0.001000070571899414</v>
+      </c>
+      <c r="C24">
+        <v>0.9660697455230914</v>
+      </c>
+      <c r="D24">
+        <v>0.9667775065795606</v>
+      </c>
+      <c r="E24">
+        <v>0.3</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24">
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K24">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="L24">
+        <v>0.96</v>
+      </c>
+      <c r="M24">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="N24">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="O24">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="P24">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q24">
+        <v>0.9634864546525324</v>
+      </c>
+      <c r="R24">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S24">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="T24">
+        <v>0.002315217901460242</v>
+      </c>
+      <c r="U24">
+        <v>1.9073486328125e-07</v>
+      </c>
+      <c r="V24">
+        <v>0.009114087729721221</v>
+      </c>
+      <c r="W24">
+        <v>0.002271371751085943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>0.005800294876098633</v>
+      </c>
+      <c r="B25">
+        <v>0.001200056076049805</v>
+      </c>
+      <c r="C25">
+        <v>0.9571159283694628</v>
+      </c>
+      <c r="D25">
+        <v>0.958059147825276</v>
+      </c>
+      <c r="E25">
+        <v>0.3</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25">
+        <v>66</v>
+      </c>
+      <c r="J25">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="K25">
+        <v>0.9569829110194461</v>
+      </c>
+      <c r="L25">
+        <v>0.9364705882352942</v>
+      </c>
+      <c r="M25">
+        <v>0.9640542133176193</v>
+      </c>
+      <c r="N25">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O25">
+        <v>0.9581614614024749</v>
+      </c>
+      <c r="P25">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="Q25">
+        <v>0.9540636042402827</v>
+      </c>
+      <c r="R25">
+        <v>0.9574468085106383</v>
+      </c>
+      <c r="S25">
+        <v>0.9570335491465568</v>
+      </c>
+      <c r="T25">
+        <v>0.0009798222345918462</v>
+      </c>
+      <c r="U25">
+        <v>0.000400018706226792</v>
+      </c>
+      <c r="V25">
+        <v>0.01220202063058329</v>
+      </c>
+      <c r="W25">
+        <v>0.003290160639760906</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>0.02920155525207519</v>
+      </c>
+      <c r="B26">
+        <v>0.001000022888183594</v>
+      </c>
+      <c r="C26">
+        <v>0.9660697455230914</v>
+      </c>
+      <c r="D26">
+        <v>0.96889744043321</v>
+      </c>
+      <c r="E26">
+        <v>0.35</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+      <c r="J26">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="K26">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L26">
+        <v>0.96</v>
+      </c>
+      <c r="M26">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="N26">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="O26">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="P26">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q26">
+        <v>0.9652532391048292</v>
+      </c>
+      <c r="R26">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S26">
+        <v>0.9699823425544438</v>
+      </c>
+      <c r="T26">
+        <v>0.00324975547897389</v>
+      </c>
+      <c r="U26">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V26">
+        <v>0.008750778701793992</v>
+      </c>
+      <c r="W26">
+        <v>0.002117922296366754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>0.006600332260131836</v>
+      </c>
+      <c r="B27">
+        <v>0.001400136947631836</v>
+      </c>
+      <c r="C27">
+        <v>0.9608859566446748</v>
+      </c>
+      <c r="D27">
+        <v>0.961711266421603</v>
+      </c>
+      <c r="E27">
+        <v>0.35</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27">
+        <v>61</v>
+      </c>
+      <c r="J27">
+        <v>0.971764705882353</v>
+      </c>
+      <c r="K27">
+        <v>0.9587507365939893</v>
+      </c>
+      <c r="L27">
+        <v>0.9364705882352942</v>
+      </c>
+      <c r="M27">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N27">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O27">
+        <v>0.9634649381261049</v>
+      </c>
+      <c r="P27">
+        <v>0.9787735849056604</v>
+      </c>
+      <c r="Q27">
+        <v>0.9575971731448764</v>
+      </c>
+      <c r="R27">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S27">
+        <v>0.9611536197763391</v>
+      </c>
+      <c r="T27">
+        <v>0.001019860919175633</v>
+      </c>
+      <c r="U27">
+        <v>0.0004899597886342959</v>
+      </c>
+      <c r="V27">
+        <v>0.0146157587145907</v>
+      </c>
+      <c r="W27">
+        <v>0.003567485096081833</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>0.02580137252807617</v>
+      </c>
+      <c r="B28">
+        <v>0.001600170135498047</v>
+      </c>
+      <c r="C28">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D28">
+        <v>0.9673664348937357</v>
+      </c>
+      <c r="E28">
+        <v>0.35</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K28">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L28">
+        <v>0.96</v>
+      </c>
+      <c r="M28">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="N28">
+        <v>0.96</v>
+      </c>
+      <c r="O28">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="P28">
+        <v>0.9858490566037735</v>
+      </c>
+      <c r="Q28">
+        <v>0.964075382803298</v>
+      </c>
+      <c r="R28">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S28">
+        <v>0.9658622719246616</v>
+      </c>
+      <c r="T28">
+        <v>0.002482169831173157</v>
+      </c>
+      <c r="U28">
+        <v>0.000489998745425609</v>
+      </c>
+      <c r="V28">
+        <v>0.009637393794891327</v>
+      </c>
+      <c r="W28">
+        <v>0.002048888613666182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>0.006400346755981445</v>
+      </c>
+      <c r="B29">
+        <v>0.001000070571899414</v>
+      </c>
+      <c r="C29">
+        <v>0.9594721960414703</v>
+      </c>
+      <c r="D29">
+        <v>0.9607687729925194</v>
+      </c>
+      <c r="E29">
+        <v>0.35</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29">
+        <v>64</v>
+      </c>
+      <c r="J29">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K29">
+        <v>0.9587507365939893</v>
+      </c>
+      <c r="L29">
+        <v>0.9388235294117647</v>
+      </c>
+      <c r="M29">
+        <v>0.9664113140836771</v>
+      </c>
+      <c r="N29">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O29">
+        <v>0.9616971125515615</v>
+      </c>
+      <c r="P29">
+        <v>0.9764150943396226</v>
+      </c>
+      <c r="Q29">
+        <v>0.9570082449941107</v>
+      </c>
+      <c r="R29">
+        <v>0.9598108747044918</v>
+      </c>
+      <c r="S29">
+        <v>0.9599764567392584</v>
+      </c>
+      <c r="T29">
+        <v>0.0008001327514648438</v>
+      </c>
+      <c r="U29">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V29">
+        <v>0.01256180792227772</v>
+      </c>
+      <c r="W29">
+        <v>0.003210666319631322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>0.03160176277160644</v>
+      </c>
+      <c r="B30">
+        <v>0.001600122451782226</v>
+      </c>
+      <c r="C30">
+        <v>0.9660697455230914</v>
+      </c>
+      <c r="D30">
+        <v>0.96889744043321</v>
+      </c>
+      <c r="E30">
+        <v>0.4</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30">
+        <v>28</v>
+      </c>
+      <c r="J30">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="K30">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L30">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="M30">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="N30">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="O30">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="P30">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q30">
+        <v>0.9652532391048292</v>
+      </c>
+      <c r="R30">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S30">
+        <v>0.9699823425544438</v>
+      </c>
+      <c r="T30">
+        <v>0.004758507538626746</v>
+      </c>
+      <c r="U30">
+        <v>0.0004900571400079585</v>
+      </c>
+      <c r="V30">
+        <v>0.007527043390852041</v>
+      </c>
+      <c r="W30">
+        <v>0.001982423378421556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>0.006200313568115234</v>
+      </c>
+      <c r="B31">
+        <v>0.001000213623046875</v>
+      </c>
+      <c r="C31">
+        <v>0.9618284637134779</v>
+      </c>
+      <c r="D31">
+        <v>0.9631251799221937</v>
+      </c>
+      <c r="E31">
+        <v>0.4</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31">
+        <v>58</v>
+      </c>
+      <c r="J31">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K31">
+        <v>0.9605185621685327</v>
+      </c>
+      <c r="L31">
+        <v>0.9388235294117647</v>
+      </c>
+      <c r="M31">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="N31">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O31">
+        <v>0.9658220388921627</v>
+      </c>
+      <c r="P31">
+        <v>0.9787735849056604</v>
+      </c>
+      <c r="Q31">
+        <v>0.9593639575971732</v>
+      </c>
+      <c r="R31">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S31">
+        <v>0.9617422012948793</v>
+      </c>
+      <c r="T31">
+        <v>0.0003999471771024199</v>
+      </c>
+      <c r="U31">
+        <v>9.536743164062499e-08</v>
+      </c>
+      <c r="V31">
+        <v>0.01421940180396727</v>
+      </c>
+      <c r="W31">
+        <v>0.003336748018440178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>0.02840161323547363</v>
+      </c>
+      <c r="B32">
+        <v>0.001400089263916016</v>
+      </c>
+      <c r="C32">
+        <v>0.9665409990574929</v>
+      </c>
+      <c r="D32">
+        <v>0.967366365485586</v>
+      </c>
+      <c r="E32">
+        <v>0.4</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32">
+        <v>23</v>
+      </c>
+      <c r="J32">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K32">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L32">
+        <v>0.96</v>
+      </c>
+      <c r="M32">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="N32">
+        <v>0.96</v>
+      </c>
+      <c r="O32">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="P32">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q32">
+        <v>0.9646643109540636</v>
+      </c>
+      <c r="R32">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S32">
+        <v>0.9658622719246616</v>
+      </c>
+      <c r="T32">
+        <v>0.004223946566113439</v>
+      </c>
+      <c r="U32">
+        <v>0.0004899987222241536</v>
+      </c>
+      <c r="V32">
+        <v>0.008718652725299324</v>
+      </c>
+      <c r="W32">
+        <v>0.001758443822808445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>0.006000375747680664</v>
+      </c>
+      <c r="B33">
+        <v>0.0009999752044677734</v>
+      </c>
+      <c r="C33">
+        <v>0.9613572101790764</v>
+      </c>
+      <c r="D33">
+        <v>0.961829329520946</v>
+      </c>
+      <c r="E33">
+        <v>0.4</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33">
+        <v>60</v>
+      </c>
+      <c r="J33">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K33">
+        <v>0.9605185621685327</v>
+      </c>
+      <c r="L33">
+        <v>0.9388235294117647</v>
+      </c>
+      <c r="M33">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N33">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O33">
+        <v>0.9628756629345905</v>
+      </c>
+      <c r="P33">
+        <v>0.9764150943396226</v>
+      </c>
+      <c r="Q33">
+        <v>0.958186101295642</v>
+      </c>
+      <c r="R33">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S33">
+        <v>0.9599764567392584</v>
+      </c>
+      <c r="T33">
+        <v>0.0006325604920650743</v>
+      </c>
+      <c r="U33">
+        <v>9.536743164062499e-08</v>
+      </c>
+      <c r="V33">
+        <v>0.01367881055789294</v>
+      </c>
+      <c r="W33">
+        <v>0.003246627079686041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>0.03380193710327149</v>
+      </c>
+      <c r="B34">
+        <v>0.001400041580200195</v>
+      </c>
+      <c r="C34">
+        <v>0.9665409990574929</v>
+      </c>
+      <c r="D34">
+        <v>0.9693688605864214</v>
+      </c>
+      <c r="E34">
+        <v>0.45</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34">
+        <v>23</v>
+      </c>
+      <c r="J34">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="K34">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L34">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="M34">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="N34">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O34">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="P34">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q34">
+        <v>0.9652532391048292</v>
+      </c>
+      <c r="R34">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S34">
+        <v>0.9699823425544438</v>
+      </c>
+      <c r="T34">
+        <v>0.00980656905340286</v>
+      </c>
+      <c r="U34">
+        <v>0.0004899403160383116</v>
+      </c>
+      <c r="V34">
+        <v>0.007351191725814682</v>
+      </c>
+      <c r="W34">
+        <v>0.002167325488722961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>0.007200479507446289</v>
+      </c>
+      <c r="B35">
+        <v>0.001200008392333984</v>
+      </c>
+      <c r="C35">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D35">
+        <v>0.9643035221624781</v>
+      </c>
+      <c r="E35">
+        <v>0.45</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35">
+        <v>46</v>
+      </c>
+      <c r="J35">
+        <v>0.9764705882352941</v>
+      </c>
+      <c r="K35">
+        <v>0.9611078373600471</v>
+      </c>
+      <c r="L35">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="M35">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N35">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O35">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="P35">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q35">
+        <v>0.9599528857479388</v>
+      </c>
+      <c r="R35">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S35">
+        <v>0.9623307828134197</v>
+      </c>
+      <c r="T35">
+        <v>0.0007483282344211676</v>
+      </c>
+      <c r="U35">
+        <v>0.00039992333879854</v>
+      </c>
+      <c r="V35">
+        <v>0.01446648116498508</v>
+      </c>
+      <c r="W35">
+        <v>0.004066422550076661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>0.03460197448730469</v>
+      </c>
+      <c r="B36">
+        <v>0.001000022888183594</v>
+      </c>
+      <c r="C36">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D36">
+        <v>0.9676020755621918</v>
+      </c>
+      <c r="E36">
+        <v>0.45</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K36">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L36">
+        <v>0.96</v>
+      </c>
+      <c r="M36">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="N36">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="O36">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="P36">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q36">
+        <v>0.9646643109540636</v>
+      </c>
+      <c r="R36">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S36">
+        <v>0.9658622719246616</v>
+      </c>
+      <c r="T36">
+        <v>0.01376454029352986</v>
+      </c>
+      <c r="U36">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V36">
+        <v>0.008410512436683802</v>
+      </c>
+      <c r="W36">
+        <v>0.001958677580499311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>0.006600427627563477</v>
+      </c>
+      <c r="B37">
+        <v>0.001400089263916016</v>
+      </c>
+      <c r="C37">
+        <v>0.9618284637134779</v>
+      </c>
+      <c r="D37">
+        <v>0.9634789530981422</v>
+      </c>
+      <c r="E37">
+        <v>0.45</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37">
+        <v>58</v>
+      </c>
+      <c r="J37">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K37">
+        <v>0.9616971125515615</v>
+      </c>
+      <c r="L37">
+        <v>0.9388235294117647</v>
+      </c>
+      <c r="M37">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N37">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O37">
+        <v>0.9652327637006483</v>
+      </c>
+      <c r="P37">
+        <v>0.9764150943396226</v>
+      </c>
+      <c r="Q37">
+        <v>0.9599528857479388</v>
+      </c>
+      <c r="R37">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S37">
+        <v>0.9605650382577987</v>
+      </c>
+      <c r="T37">
+        <v>0.001019945088876894</v>
+      </c>
+      <c r="U37">
+        <v>0.0004899013824479931</v>
+      </c>
+      <c r="V37">
+        <v>0.01373945304288851</v>
+      </c>
+      <c r="W37">
+        <v>0.003715105354938318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>0.03740200996398926</v>
+      </c>
+      <c r="B38">
+        <v>0.001200246810913086</v>
+      </c>
+      <c r="C38">
+        <v>0.967483506126296</v>
+      </c>
+      <c r="D38">
+        <v>0.9694866462165745</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="K38">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L38">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="M38">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="N38">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O38">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="P38">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q38">
+        <v>0.9658421672555948</v>
+      </c>
+      <c r="R38">
+        <v>0.9621749408983451</v>
+      </c>
+      <c r="S38">
+        <v>0.9699823425544438</v>
+      </c>
+      <c r="T38">
+        <v>0.003555521696410377</v>
+      </c>
+      <c r="U38">
+        <v>0.0004000425445315194</v>
+      </c>
+      <c r="V38">
+        <v>0.008073221016428631</v>
+      </c>
+      <c r="W38">
+        <v>0.002082993964351172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>0.005800390243530273</v>
+      </c>
+      <c r="B39">
+        <v>0.001199960708618164</v>
+      </c>
+      <c r="C39">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D39">
+        <v>0.9655992338291309</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39">
+        <v>39</v>
+      </c>
+      <c r="J39">
+        <v>0.9764705882352941</v>
+      </c>
+      <c r="K39">
+        <v>0.9628756629345905</v>
+      </c>
+      <c r="L39">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="M39">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N39">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O39">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="P39">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q39">
+        <v>0.9611307420494699</v>
+      </c>
+      <c r="R39">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S39">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="T39">
+        <v>0.0003998994933878707</v>
+      </c>
+      <c r="U39">
+        <v>0.0004000663757324219</v>
+      </c>
+      <c r="V39">
+        <v>0.01505276040480099</v>
+      </c>
+      <c r="W39">
+        <v>0.003539452615112472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>0.03640213012695313</v>
+      </c>
+      <c r="B40">
+        <v>0.001400089263916016</v>
+      </c>
+      <c r="C40">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D40">
+        <v>0.967719861192345</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K40">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L40">
+        <v>0.96</v>
+      </c>
+      <c r="M40">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="N40">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O40">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="P40">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q40">
+        <v>0.9652532391048292</v>
+      </c>
+      <c r="R40">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S40">
+        <v>0.9658622719246616</v>
+      </c>
+      <c r="T40">
+        <v>0.005238477741601208</v>
+      </c>
+      <c r="U40">
+        <v>0.0004899987222241536</v>
+      </c>
+      <c r="V40">
+        <v>0.007282488411175977</v>
+      </c>
+      <c r="W40">
+        <v>0.001788814907085997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>0.005600404739379883</v>
+      </c>
+      <c r="B41">
+        <v>0.001400089263916016</v>
+      </c>
+      <c r="C41">
+        <v>0.9627709707822809</v>
+      </c>
+      <c r="D41">
+        <v>0.9644211690580363</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41">
+        <v>56</v>
+      </c>
+      <c r="J41">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K41">
+        <v>0.9616971125515615</v>
+      </c>
+      <c r="L41">
+        <v>0.9435294117647058</v>
+      </c>
+      <c r="M41">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N41">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O41">
+        <v>0.9664113140836771</v>
+      </c>
+      <c r="P41">
+        <v>0.9764150943396226</v>
+      </c>
+      <c r="Q41">
+        <v>0.9605418138987044</v>
+      </c>
+      <c r="R41">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S41">
+        <v>0.96291936433196</v>
+      </c>
+      <c r="T41">
+        <v>0.0004899403160383116</v>
+      </c>
+      <c r="U41">
+        <v>0.0004899013824479931</v>
+      </c>
+      <c r="V41">
+        <v>0.01220471021090507</v>
+      </c>
+      <c r="W41">
+        <v>0.003635383687460808</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>0.04760279655456543</v>
+      </c>
+      <c r="B42">
+        <v>0.001400041580200195</v>
+      </c>
+      <c r="C42">
+        <v>0.9688972667295005</v>
+      </c>
+      <c r="D42">
+        <v>0.9697221481504357</v>
+      </c>
+      <c r="E42">
+        <v>0.55</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K42">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L42">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="M42">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N42">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O42">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="P42">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q42">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="R42">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S42">
+        <v>0.9705709240729841</v>
+      </c>
+      <c r="T42">
+        <v>0.005535623790004651</v>
+      </c>
+      <c r="U42">
+        <v>0.0004898429878647236</v>
+      </c>
+      <c r="V42">
+        <v>0.007628549581932854</v>
+      </c>
+      <c r="W42">
+        <v>0.001806524255726908</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43">
+        <v>0.006800365447998047</v>
+      </c>
+      <c r="B43">
+        <v>0.001000022888183594</v>
+      </c>
+      <c r="C43">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D43">
+        <v>0.9659527295358897</v>
+      </c>
+      <c r="E43">
+        <v>0.55</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43">
+        <v>39</v>
+      </c>
+      <c r="J43">
+        <v>0.9764705882352941</v>
+      </c>
+      <c r="K43">
+        <v>0.9634649381261049</v>
+      </c>
+      <c r="L43">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="M43">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="N43">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O43">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="P43">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q43">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="R43">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S43">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="T43">
+        <v>0.0007485066505440396</v>
+      </c>
+      <c r="U43">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V43">
+        <v>0.01505276040480099</v>
+      </c>
+      <c r="W43">
+        <v>0.003475645527404267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44">
+        <v>0.04260244369506836</v>
+      </c>
+      <c r="B44">
+        <v>0.001400041580200195</v>
+      </c>
+      <c r="C44">
+        <v>0.967483506126296</v>
+      </c>
+      <c r="D44">
+        <v>0.9685447076441654</v>
+      </c>
+      <c r="E44">
+        <v>0.55</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44">
+        <v>16</v>
+      </c>
+      <c r="J44">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K44">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L44">
+        <v>0.96</v>
+      </c>
+      <c r="M44">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N44">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O44">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="P44">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q44">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="R44">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S44">
+        <v>0.9658622719246616</v>
+      </c>
+      <c r="T44">
+        <v>0.003826426526792502</v>
+      </c>
+      <c r="U44">
+        <v>0.0004899403160383116</v>
+      </c>
+      <c r="V44">
+        <v>0.007183006386485426</v>
+      </c>
+      <c r="W44">
+        <v>0.0020469809276216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45">
+        <v>0.006600332260131836</v>
+      </c>
+      <c r="B45">
+        <v>0.001000213623046875</v>
+      </c>
+      <c r="C45">
+        <v>0.9627709707822809</v>
+      </c>
+      <c r="D45">
+        <v>0.9646567404000471</v>
+      </c>
+      <c r="E45">
+        <v>0.55</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45">
+        <v>56</v>
+      </c>
+      <c r="J45">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K45">
+        <v>0.9622863877430761</v>
+      </c>
+      <c r="L45">
+        <v>0.9435294117647058</v>
+      </c>
+      <c r="M45">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N45">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O45">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="P45">
+        <v>0.9764150943396226</v>
+      </c>
+      <c r="Q45">
+        <v>0.9605418138987044</v>
+      </c>
+      <c r="R45">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="S45">
+        <v>0.9635079458505003</v>
+      </c>
+      <c r="T45">
+        <v>0.001356430959765604</v>
+      </c>
+      <c r="U45">
+        <v>9.536743164062499e-08</v>
+      </c>
+      <c r="V45">
+        <v>0.01220471021090507</v>
+      </c>
+      <c r="W45">
+        <v>0.003386769170673949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>0.04980278015136719</v>
+      </c>
+      <c r="B46">
+        <v>0.001200103759765625</v>
+      </c>
+      <c r="C46">
+        <v>0.9688972667295005</v>
+      </c>
+      <c r="D46">
+        <v>0.9696043624385779</v>
+      </c>
+      <c r="E46">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="K46">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L46">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="M46">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="N46">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O46">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="P46">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q46">
+        <v>0.967020023557126</v>
+      </c>
+      <c r="R46">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S46">
+        <v>0.9699823425544438</v>
+      </c>
+      <c r="T46">
+        <v>0.007756818673106207</v>
+      </c>
+      <c r="U46">
+        <v>0.0004001140736550456</v>
+      </c>
+      <c r="V46">
+        <v>0.007628549581932854</v>
+      </c>
+      <c r="W46">
+        <v>0.001558736589072493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47">
+        <v>0.006000328063964844</v>
+      </c>
+      <c r="B47">
+        <v>0.001200056076049805</v>
+      </c>
+      <c r="C47">
+        <v>0.9646559849198869</v>
+      </c>
+      <c r="D47">
+        <v>0.9659527295358897</v>
+      </c>
+      <c r="E47">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47">
+        <v>33</v>
+      </c>
+      <c r="J47">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K47">
+        <v>0.9634649381261049</v>
+      </c>
+      <c r="L47">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="M47">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="N47">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O47">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="P47">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q47">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="R47">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S47">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="T47">
+        <v>0.0006326358965221238</v>
+      </c>
+      <c r="U47">
+        <v>0.000748430175641352</v>
+      </c>
+      <c r="V47">
+        <v>0.01270121311610139</v>
+      </c>
+      <c r="W47">
+        <v>0.003475645527404267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48">
+        <v>0.04560260772705078</v>
+      </c>
+      <c r="B48">
+        <v>0.001000070571899414</v>
+      </c>
+      <c r="C48">
+        <v>0.9684260131950989</v>
+      </c>
+      <c r="D48">
+        <v>0.9687800708434319</v>
+      </c>
+      <c r="E48">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48">
+        <v>13</v>
+      </c>
+      <c r="J48">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K48">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L48">
+        <v>0.96</v>
+      </c>
+      <c r="M48">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N48">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O48">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="P48">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q48">
+        <v>0.967020023557126</v>
+      </c>
+      <c r="R48">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S48">
+        <v>0.9670394349617422</v>
+      </c>
+      <c r="T48">
+        <v>0.007172663150843926</v>
+      </c>
+      <c r="U48">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V48">
+        <v>0.0070544436685576</v>
+      </c>
+      <c r="W48">
+        <v>0.001611860371179549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49">
+        <v>0.006600379943847656</v>
+      </c>
+      <c r="B49">
+        <v>0.001400089263916016</v>
+      </c>
+      <c r="C49">
+        <v>0.9632422243166824</v>
+      </c>
+      <c r="D49">
+        <v>0.9650100973722113</v>
+      </c>
+      <c r="E49">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49">
+        <v>54</v>
+      </c>
+      <c r="J49">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K49">
+        <v>0.9622863877430761</v>
+      </c>
+      <c r="L49">
+        <v>0.9435294117647058</v>
+      </c>
+      <c r="M49">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="N49">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O49">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="P49">
+        <v>0.9764150943396226</v>
+      </c>
+      <c r="Q49">
+        <v>0.9611307420494699</v>
+      </c>
+      <c r="R49">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S49">
+        <v>0.9640965273690406</v>
+      </c>
+      <c r="T49">
+        <v>0.0008001327656733407</v>
+      </c>
+      <c r="U49">
+        <v>0.0004899014056540585</v>
+      </c>
+      <c r="V49">
+        <v>0.01230907521741154</v>
+      </c>
+      <c r="W49">
+        <v>0.003232552955204457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50">
+        <v>0.04160242080688477</v>
+      </c>
+      <c r="B50">
+        <v>0.001200103759765625</v>
+      </c>
+      <c r="C50">
+        <v>0.9688972667295005</v>
+      </c>
+      <c r="D50">
+        <v>0.9698399337805889</v>
+      </c>
+      <c r="E50">
+        <v>0.6500000000000001</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K50">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L50">
+        <v>0.96</v>
+      </c>
+      <c r="M50">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="N50">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O50">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="P50">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="Q50">
+        <v>0.967020023557126</v>
+      </c>
+      <c r="R50">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S50">
+        <v>0.9705709240729841</v>
+      </c>
+      <c r="T50">
+        <v>0.003200179341868945</v>
+      </c>
+      <c r="U50">
+        <v>0.0003999948892390431</v>
+      </c>
+      <c r="V50">
+        <v>0.007913917873380454</v>
+      </c>
+      <c r="W50">
+        <v>0.001550757286625456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51">
+        <v>0.006400442123413086</v>
+      </c>
+      <c r="B51">
+        <v>0.0005999565124511719</v>
+      </c>
+      <c r="C51">
+        <v>0.9646559849198869</v>
+      </c>
+      <c r="D51">
+        <v>0.965717019459284</v>
+      </c>
+      <c r="E51">
+        <v>0.6500000000000001</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51">
+        <v>33</v>
+      </c>
+      <c r="J51">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K51">
+        <v>0.9628756629345905</v>
+      </c>
+      <c r="L51">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="M51">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N51">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O51">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="P51">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q51">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="R51">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S51">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="T51">
+        <v>0.001019842216083695</v>
+      </c>
+      <c r="U51">
+        <v>0.0004898624411217046</v>
+      </c>
+      <c r="V51">
+        <v>0.01270121311610139</v>
+      </c>
+      <c r="W51">
+        <v>0.003395669358625184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52">
+        <v>0.04520254135131836</v>
+      </c>
+      <c r="B52">
+        <v>0.001000118255615234</v>
+      </c>
+      <c r="C52">
+        <v>0.9679547596606974</v>
+      </c>
+      <c r="D52">
+        <v>0.9690157809200375</v>
+      </c>
+      <c r="E52">
+        <v>0.6500000000000001</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52">
+        <v>14</v>
+      </c>
+      <c r="J52">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K52">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L52">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="M52">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N52">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O52">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="P52">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q52">
+        <v>0.967020023557126</v>
+      </c>
+      <c r="R52">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S52">
+        <v>0.9670394349617422</v>
+      </c>
+      <c r="T52">
+        <v>0.004069672520917464</v>
+      </c>
+      <c r="U52">
+        <v>1.784161275279017e-07</v>
+      </c>
+      <c r="V52">
+        <v>0.007654639405159806</v>
+      </c>
+      <c r="W52">
+        <v>0.001677747283323263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53">
+        <v>0.007000446319580078</v>
+      </c>
+      <c r="B53">
+        <v>0.001000022888183594</v>
+      </c>
+      <c r="C53">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D53">
+        <v>0.9648922424156131</v>
+      </c>
+      <c r="E53">
+        <v>0.6500000000000001</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s">
+        <v>88</v>
+      </c>
+      <c r="I53">
+        <v>46</v>
+      </c>
+      <c r="J53">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K53">
+        <v>0.9622863877430761</v>
+      </c>
+      <c r="L53">
+        <v>0.9435294117647058</v>
+      </c>
+      <c r="M53">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="N53">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O53">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="P53">
+        <v>0.9787735849056604</v>
+      </c>
+      <c r="Q53">
+        <v>0.9599528857479388</v>
+      </c>
+      <c r="R53">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S53">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="T53">
+        <v>0.000894522310755241</v>
+      </c>
+      <c r="U53">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V53">
+        <v>0.01283815496644092</v>
+      </c>
+      <c r="W53">
+        <v>0.003520640371979947</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54">
+        <v>0.04900283813476562</v>
+      </c>
+      <c r="B54">
+        <v>0.001400041580200195</v>
+      </c>
+      <c r="C54">
+        <v>0.970311027332705</v>
+      </c>
+      <c r="D54">
+        <v>0.970429417114848</v>
+      </c>
+      <c r="E54">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>89</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K54">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="L54">
+        <v>0.96</v>
+      </c>
+      <c r="M54">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="N54">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O54">
+        <v>0.9728933411903359</v>
+      </c>
+      <c r="P54">
+        <v>0.9858490566037735</v>
+      </c>
+      <c r="Q54">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="R54">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="S54">
+        <v>0.9699823425544438</v>
+      </c>
+      <c r="T54">
+        <v>0.006542636961047987</v>
+      </c>
+      <c r="U54">
+        <v>0.0004898429878647236</v>
+      </c>
+      <c r="V54">
+        <v>0.008980569324657739</v>
+      </c>
+      <c r="W54">
+        <v>0.002208805679509882</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55">
+        <v>0.006600379943847656</v>
+      </c>
+      <c r="B55">
+        <v>0.0009999752044677734</v>
+      </c>
+      <c r="C55">
+        <v>0.9646559849198869</v>
+      </c>
+      <c r="D55">
+        <v>0.966188092735156</v>
+      </c>
+      <c r="E55">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55">
+        <v>33</v>
+      </c>
+      <c r="J55">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K55">
+        <v>0.9628756629345905</v>
+      </c>
+      <c r="L55">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="M55">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N55">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O55">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="P55">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q55">
+        <v>0.9623085983510011</v>
+      </c>
+      <c r="R55">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S55">
+        <v>0.9658622719246616</v>
+      </c>
+      <c r="T55">
+        <v>0.0007999539459686984</v>
+      </c>
+      <c r="U55">
+        <v>9.536743164062499e-08</v>
+      </c>
+      <c r="V55">
+        <v>0.01270121311610139</v>
+      </c>
+      <c r="W55">
+        <v>0.003319083080313796</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56">
+        <v>0.05100288391113281</v>
+      </c>
+      <c r="B56">
+        <v>0.001600074768066406</v>
+      </c>
+      <c r="C56">
+        <v>0.967483506126296</v>
+      </c>
+      <c r="D56">
+        <v>0.9691334972237456</v>
+      </c>
+      <c r="E56">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56">
+        <v>16</v>
+      </c>
+      <c r="J56">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K56">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L56">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="M56">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="N56">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O56">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="P56">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q56">
+        <v>0.967020023557126</v>
+      </c>
+      <c r="R56">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S56">
+        <v>0.9676280164802825</v>
+      </c>
+      <c r="T56">
+        <v>0.00846219771094734</v>
+      </c>
+      <c r="U56">
+        <v>0.0004899208473093903</v>
+      </c>
+      <c r="V56">
+        <v>0.008318373475453446</v>
+      </c>
+      <c r="W56">
+        <v>0.001679780485306588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57">
+        <v>0.007200336456298828</v>
+      </c>
+      <c r="B57">
+        <v>0.001200008392333984</v>
+      </c>
+      <c r="C57">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D57">
+        <v>0.9648922424156131</v>
+      </c>
+      <c r="E57">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57">
+        <v>39</v>
+      </c>
+      <c r="J57">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K57">
+        <v>0.9622863877430761</v>
+      </c>
+      <c r="L57">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="M57">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="N57">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O57">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="P57">
+        <v>0.9787735849056604</v>
+      </c>
+      <c r="Q57">
+        <v>0.9599528857479388</v>
+      </c>
+      <c r="R57">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S57">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="T57">
+        <v>0.001166122215481694</v>
+      </c>
+      <c r="U57">
+        <v>0.0004000425445315194</v>
+      </c>
+      <c r="V57">
+        <v>0.01211120761653094</v>
+      </c>
+      <c r="W57">
+        <v>0.003520640371979947</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58">
+        <v>0.04820284843444824</v>
+      </c>
+      <c r="B58">
+        <v>0.001200008392333984</v>
+      </c>
+      <c r="C58">
+        <v>0.970311027332705</v>
+      </c>
+      <c r="D58">
+        <v>0.9707829128216069</v>
+      </c>
+      <c r="E58">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>93</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K58">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="L58">
+        <v>0.96</v>
+      </c>
+      <c r="M58">
+        <v>0.9723040659988215</v>
+      </c>
+      <c r="N58">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O58">
+        <v>0.9728933411903359</v>
+      </c>
+      <c r="P58">
+        <v>0.9858490566037735</v>
+      </c>
+      <c r="Q58">
+        <v>0.967020023557126</v>
+      </c>
+      <c r="R58">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="S58">
+        <v>0.9699823425544438</v>
+      </c>
+      <c r="T58">
+        <v>0.006493347279123145</v>
+      </c>
+      <c r="U58">
+        <v>0.0004000425445315194</v>
+      </c>
+      <c r="V58">
+        <v>0.008980569324657739</v>
+      </c>
+      <c r="W58">
+        <v>0.002118322913898145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59">
+        <v>0.00760045051574707</v>
+      </c>
+      <c r="B59">
+        <v>0.001000070571899414</v>
+      </c>
+      <c r="C59">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D59">
+        <v>0.966188023408711</v>
+      </c>
+      <c r="E59">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59">
+        <v>39</v>
+      </c>
+      <c r="J59">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K59">
+        <v>0.9628756629345905</v>
+      </c>
+      <c r="L59">
+        <v>0.9435294117647058</v>
+      </c>
+      <c r="M59">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N59">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O59">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="P59">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q59">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="R59">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S59">
+        <v>0.9664508534432019</v>
+      </c>
+      <c r="T59">
+        <v>0.0008001446950382532</v>
+      </c>
+      <c r="U59">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V59">
+        <v>0.01341274943550472</v>
+      </c>
+      <c r="W59">
+        <v>0.003462968949012779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60">
+        <v>0.05520315170288086</v>
+      </c>
+      <c r="B60">
+        <v>0.001400041580200195</v>
+      </c>
+      <c r="C60">
+        <v>0.967483506126296</v>
+      </c>
+      <c r="D60">
+        <v>0.9696045705813227</v>
+      </c>
+      <c r="E60">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60">
+        <v>16</v>
+      </c>
+      <c r="J60">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K60">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="L60">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="M60">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N60">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O60">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="P60">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q60">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="R60">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S60">
+        <v>0.9693937610359035</v>
+      </c>
+      <c r="T60">
+        <v>0.007782624628703317</v>
+      </c>
+      <c r="U60">
+        <v>0.0004899403160383116</v>
+      </c>
+      <c r="V60">
+        <v>0.008318373475453446</v>
+      </c>
+      <c r="W60">
+        <v>0.001763726597083755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61">
+        <v>0.006800365447998047</v>
+      </c>
+      <c r="B61">
+        <v>0.001200056076049805</v>
+      </c>
+      <c r="C61">
+        <v>0.9646559849198869</v>
+      </c>
+      <c r="D61">
+        <v>0.9650100280457663</v>
+      </c>
+      <c r="E61">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61">
+        <v>33</v>
+      </c>
+      <c r="J61">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K61">
+        <v>0.9622863877430761</v>
+      </c>
+      <c r="L61">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="M61">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N61">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O61">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="P61">
+        <v>0.9787735849056604</v>
+      </c>
+      <c r="Q61">
+        <v>0.9605418138987044</v>
+      </c>
+      <c r="R61">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S61">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="T61">
+        <v>0.00039992333879854</v>
+      </c>
+      <c r="U61">
+        <v>0.000748366450713617</v>
+      </c>
+      <c r="V61">
+        <v>0.01225297519148518</v>
+      </c>
+      <c r="W61">
+        <v>0.003421041694249361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62">
+        <v>0.05400323867797852</v>
+      </c>
+      <c r="B62">
+        <v>0.001200008392333984</v>
+      </c>
+      <c r="C62">
+        <v>0.9707822808671065</v>
+      </c>
+      <c r="D62">
+        <v>0.9712541942402234</v>
+      </c>
+      <c r="E62">
+        <v>0.8</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" t="s">
+        <v>97</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K62">
+        <v>0.9723040659988215</v>
+      </c>
+      <c r="L62">
+        <v>0.96</v>
+      </c>
+      <c r="M62">
+        <v>0.9728933411903359</v>
+      </c>
+      <c r="N62">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O62">
+        <v>0.9734826163818503</v>
+      </c>
+      <c r="P62">
+        <v>0.9858490566037735</v>
+      </c>
+      <c r="Q62">
+        <v>0.967020023557126</v>
+      </c>
+      <c r="R62">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="S62">
+        <v>0.9705709240729841</v>
+      </c>
+      <c r="T62">
+        <v>0.006928616458912749</v>
+      </c>
+      <c r="U62">
+        <v>0.0004000425445315194</v>
+      </c>
+      <c r="V62">
+        <v>0.009220360435908088</v>
+      </c>
+      <c r="W62">
+        <v>0.002330234244444041</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63">
+        <v>0.008400583267211914</v>
+      </c>
+      <c r="B63">
+        <v>0.001200056076049805</v>
+      </c>
+      <c r="C63">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D63">
+        <v>0.966305739712419</v>
+      </c>
+      <c r="E63">
+        <v>0.8</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s">
+        <v>98</v>
+      </c>
+      <c r="I63">
+        <v>39</v>
+      </c>
+      <c r="J63">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K63">
+        <v>0.9628756629345905</v>
+      </c>
+      <c r="L63">
+        <v>0.9435294117647058</v>
+      </c>
+      <c r="M63">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N63">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O63">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="P63">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q63">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="R63">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S63">
+        <v>0.9670394349617422</v>
+      </c>
+      <c r="T63">
+        <v>0.001019870262789951</v>
+      </c>
+      <c r="U63">
+        <v>0.000400018706226792</v>
+      </c>
+      <c r="V63">
+        <v>0.01341274943550472</v>
+      </c>
+      <c r="W63">
+        <v>0.003479865114453268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64">
+        <v>0.05480318069458008</v>
+      </c>
+      <c r="B64">
+        <v>0.0009999752044677734</v>
+      </c>
+      <c r="C64">
+        <v>0.9679547596606974</v>
+      </c>
+      <c r="D64">
+        <v>0.9692512136091584</v>
+      </c>
+      <c r="E64">
+        <v>0.8</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I64">
+        <v>14</v>
+      </c>
+      <c r="J64">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K64">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="L64">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="M64">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N64">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="O64">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="P64">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q64">
+        <v>0.9658421672555948</v>
+      </c>
+      <c r="R64">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S64">
+        <v>0.9688051795173631</v>
+      </c>
+      <c r="T64">
+        <v>0.01085240908184345</v>
+      </c>
+      <c r="U64">
+        <v>9.536743164062499e-08</v>
+      </c>
+      <c r="V64">
+        <v>0.008213656870616766</v>
+      </c>
+      <c r="W64">
+        <v>0.001869166429250629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65">
+        <v>0.006400251388549804</v>
+      </c>
+      <c r="B65">
+        <v>0.001400041580200195</v>
+      </c>
+      <c r="C65">
+        <v>0.9646559849198869</v>
+      </c>
+      <c r="D65">
+        <v>0.9647745954383501</v>
+      </c>
+      <c r="E65">
+        <v>0.8</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65">
+        <v>33</v>
+      </c>
+      <c r="J65">
+        <v>0.9741176470588235</v>
+      </c>
+      <c r="K65">
+        <v>0.9622863877430761</v>
+      </c>
+      <c r="L65">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="M65">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N65">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O65">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="P65">
+        <v>0.9787735849056604</v>
+      </c>
+      <c r="Q65">
+        <v>0.9605418138987044</v>
+      </c>
+      <c r="R65">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S65">
+        <v>0.9635079458505003</v>
+      </c>
+      <c r="T65">
+        <v>0.0008000612312197761</v>
+      </c>
+      <c r="U65">
+        <v>0.0004899403160383116</v>
+      </c>
+      <c r="V65">
+        <v>0.01225297519148518</v>
+      </c>
+      <c r="W65">
+        <v>0.003475375296792219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66">
+        <v>0.05440316200256348</v>
+      </c>
+      <c r="B66">
+        <v>0.001000118255615234</v>
+      </c>
+      <c r="C66">
+        <v>0.970311027332705</v>
+      </c>
+      <c r="D66">
+        <v>0.9714899043168292</v>
+      </c>
+      <c r="E66">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K66">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="L66">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="M66">
+        <v>0.9752504419563937</v>
+      </c>
+      <c r="N66">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="O66">
+        <v>0.9728933411903359</v>
+      </c>
+      <c r="P66">
+        <v>0.9858490566037735</v>
+      </c>
+      <c r="Q66">
+        <v>0.967020023557126</v>
+      </c>
+      <c r="R66">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="S66">
+        <v>0.9705709240729841</v>
+      </c>
+      <c r="T66">
+        <v>0.009542018186814206</v>
+      </c>
+      <c r="U66">
+        <v>1.784161275279017e-07</v>
+      </c>
+      <c r="V66">
+        <v>0.009801233312960728</v>
+      </c>
+      <c r="W66">
+        <v>0.002719787161696334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67">
+        <v>0.008000421524047851</v>
+      </c>
+      <c r="B67">
+        <v>0.001200199127197266</v>
+      </c>
+      <c r="C67">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D67">
+        <v>0.9664235947507219</v>
+      </c>
+      <c r="E67">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s">
+        <v>102</v>
+      </c>
+      <c r="I67">
+        <v>46</v>
+      </c>
+      <c r="J67">
+        <v>0.971764705882353</v>
+      </c>
+      <c r="K67">
+        <v>0.9634649381261049</v>
+      </c>
+      <c r="L67">
+        <v>0.9435294117647058</v>
+      </c>
+      <c r="M67">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N67">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O67">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="P67">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q67">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="R67">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S67">
+        <v>0.9670394349617422</v>
+      </c>
+      <c r="T67">
+        <v>0.0012649701770088</v>
+      </c>
+      <c r="U67">
+        <v>0.0003999471771024199</v>
+      </c>
+      <c r="V67">
+        <v>0.01309300409133258</v>
+      </c>
+      <c r="W67">
+        <v>0.003369943144169751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68">
+        <v>0.05900325775146485</v>
+      </c>
+      <c r="B68">
+        <v>0.001200056076049805</v>
+      </c>
+      <c r="C68">
+        <v>0.969368520263902</v>
+      </c>
+      <c r="D68">
+        <v>0.9696046399894722</v>
+      </c>
+      <c r="E68">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" t="s">
+        <v>103</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>0.9694117647058823</v>
+      </c>
+      <c r="K68">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="L68">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="M68">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="N68">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="O68">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="P68">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q68">
+        <v>0.9658421672555948</v>
+      </c>
+      <c r="R68">
+        <v>0.9716312056737588</v>
+      </c>
+      <c r="S68">
+        <v>0.9693937610359035</v>
+      </c>
+      <c r="T68">
+        <v>0.007043143871027042</v>
+      </c>
+      <c r="U68">
+        <v>0.0003998995218167223</v>
+      </c>
+      <c r="V68">
+        <v>0.00756683123321493</v>
+      </c>
+      <c r="W68">
+        <v>0.001984675072541103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69">
+        <v>0.007800483703613281</v>
+      </c>
+      <c r="B69">
+        <v>0.001000070571899414</v>
+      </c>
+      <c r="C69">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D69">
+        <v>0.964892450476653</v>
+      </c>
+      <c r="E69">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" t="s">
+        <v>104</v>
+      </c>
+      <c r="I69">
+        <v>39</v>
+      </c>
+      <c r="J69">
+        <v>0.971764705882353</v>
+      </c>
+      <c r="K69">
+        <v>0.9622863877430761</v>
+      </c>
+      <c r="L69">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="M69">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N69">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O69">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="P69">
+        <v>0.9787735849056604</v>
+      </c>
+      <c r="Q69">
+        <v>0.9605418138987044</v>
+      </c>
+      <c r="R69">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S69">
+        <v>0.9635079458505003</v>
+      </c>
+      <c r="T69">
+        <v>0.0007483027507443648</v>
+      </c>
+      <c r="U69">
+        <v>1.9073486328125e-07</v>
+      </c>
+      <c r="V69">
+        <v>0.01192075792668161</v>
+      </c>
+      <c r="W69">
+        <v>0.003577342585230928</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70">
+        <v>0.05740327835083008</v>
+      </c>
+      <c r="B70">
+        <v>0.001200008392333984</v>
+      </c>
+      <c r="C70">
+        <v>0.971253534401508</v>
+      </c>
+      <c r="D70">
+        <v>0.9712541942402236</v>
+      </c>
+      <c r="E70">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0.9694117647058823</v>
+      </c>
+      <c r="K70">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="L70">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="M70">
+        <v>0.9752504419563937</v>
+      </c>
+      <c r="N70">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="O70">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="P70">
+        <v>0.9858490566037735</v>
+      </c>
+      <c r="Q70">
+        <v>0.967020023557126</v>
+      </c>
+      <c r="R70">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="S70">
+        <v>0.9705709240729841</v>
+      </c>
+      <c r="T70">
+        <v>0.007658189404353054</v>
+      </c>
+      <c r="U70">
+        <v>0.0004000425445315194</v>
+      </c>
+      <c r="V70">
+        <v>0.009436387271237004</v>
+      </c>
+      <c r="W70">
+        <v>0.002637777613797459</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71">
+        <v>0.007000303268432618</v>
+      </c>
+      <c r="B71">
+        <v>0.001000118255615234</v>
+      </c>
+      <c r="C71">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D71">
+        <v>0.9663058784470138</v>
+      </c>
+      <c r="E71">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" t="s">
+        <v>106</v>
+      </c>
+      <c r="I71">
+        <v>46</v>
+      </c>
+      <c r="J71">
+        <v>0.971764705882353</v>
+      </c>
+      <c r="K71">
+        <v>0.9634649381261049</v>
+      </c>
+      <c r="L71">
+        <v>0.9435294117647058</v>
+      </c>
+      <c r="M71">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N71">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O71">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="P71">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q71">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="R71">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S71">
+        <v>0.9664508534432019</v>
+      </c>
+      <c r="T71">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="U71">
+        <v>1.784161275279017e-07</v>
+      </c>
+      <c r="V71">
+        <v>0.01309300409133258</v>
+      </c>
+      <c r="W71">
+        <v>0.003356628731471399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72">
+        <v>0.05580306053161621</v>
+      </c>
+      <c r="B72">
+        <v>0.001000070571899414</v>
+      </c>
+      <c r="C72">
+        <v>0.969368520263902</v>
+      </c>
+      <c r="D72">
+        <v>0.9693690686474614</v>
+      </c>
+      <c r="E72">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72">
+        <v>7</v>
+      </c>
+      <c r="J72">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K72">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L72">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="M72">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="N72">
+        <v>0.9694117647058823</v>
+      </c>
+      <c r="O72">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="P72">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q72">
+        <v>0.9658421672555948</v>
+      </c>
+      <c r="R72">
+        <v>0.9716312056737588</v>
+      </c>
+      <c r="S72">
+        <v>0.9688051795173631</v>
+      </c>
+      <c r="T72">
+        <v>0.01207382645914341</v>
+      </c>
+      <c r="U72">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V72">
+        <v>0.00756683123321493</v>
+      </c>
+      <c r="W72">
+        <v>0.001962711427969829</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73">
+        <v>0.007200479507446289</v>
+      </c>
+      <c r="B73">
+        <v>0.0008000373840332031</v>
+      </c>
+      <c r="C73">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D73">
+        <v>0.9650101667803611</v>
+      </c>
+      <c r="E73">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s">
+        <v>108</v>
+      </c>
+      <c r="I73">
+        <v>46</v>
+      </c>
+      <c r="J73">
+        <v>0.9694117647058823</v>
+      </c>
+      <c r="K73">
+        <v>0.9628756629345905</v>
+      </c>
+      <c r="L73">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="M73">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N73">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O73">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="P73">
+        <v>0.9787735849056604</v>
+      </c>
+      <c r="Q73">
+        <v>0.9605418138987044</v>
+      </c>
+      <c r="R73">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S73">
+        <v>0.9640965273690406</v>
+      </c>
+      <c r="T73">
+        <v>0.0009799584953901974</v>
+      </c>
+      <c r="U73">
+        <v>0.0004000187346471713</v>
+      </c>
+      <c r="V73">
+        <v>0.0116553439225903</v>
+      </c>
+      <c r="W73">
+        <v>0.003358089940103292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74">
+        <v>0.06020340919494629</v>
+      </c>
+      <c r="B74">
+        <v>0.001000070571899414</v>
+      </c>
+      <c r="C74">
+        <v>0.9707822808671065</v>
+      </c>
+      <c r="D74">
+        <v>0.9712542636483732</v>
+      </c>
+      <c r="E74">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K74">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="L74">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="M74">
+        <v>0.9758397171479081</v>
+      </c>
+      <c r="N74">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="O74">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="P74">
+        <v>0.9858490566037735</v>
+      </c>
+      <c r="Q74">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="R74">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="S74">
+        <v>0.9705709240729841</v>
+      </c>
+      <c r="T74">
+        <v>0.01163509829157196</v>
+      </c>
+      <c r="U74">
+        <v>1.9073486328125e-07</v>
+      </c>
+      <c r="V74">
+        <v>0.009574342674145458</v>
+      </c>
+      <c r="W74">
+        <v>0.003006009287766148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75">
+        <v>0.0104006290435791</v>
+      </c>
+      <c r="B75">
+        <v>0.00240015983581543</v>
+      </c>
+      <c r="C75">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D75">
+        <v>0.96654151911547</v>
+      </c>
+      <c r="E75">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s">
+        <v>110</v>
+      </c>
+      <c r="I75">
+        <v>46</v>
+      </c>
+      <c r="J75">
+        <v>0.971764705882353</v>
+      </c>
+      <c r="K75">
+        <v>0.9634649381261049</v>
+      </c>
+      <c r="L75">
+        <v>0.9435294117647058</v>
+      </c>
+      <c r="M75">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N75">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O75">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="P75">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q75">
+        <v>0.9623085983510011</v>
+      </c>
+      <c r="R75">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="S75">
+        <v>0.9664508534432019</v>
+      </c>
+      <c r="T75">
+        <v>0.001624848393566729</v>
+      </c>
+      <c r="U75">
+        <v>0.002332645127942362</v>
+      </c>
+      <c r="V75">
+        <v>0.01309300409133258</v>
+      </c>
+      <c r="W75">
+        <v>0.003314997756842635</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76">
+        <v>0.0608034610748291</v>
+      </c>
+      <c r="B76">
+        <v>0.001000022888183594</v>
+      </c>
+      <c r="C76">
+        <v>0.969368520263902</v>
+      </c>
+      <c r="D76">
+        <v>0.9694868542776145</v>
+      </c>
+      <c r="E76">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>111</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="K76">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L76">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="M76">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="N76">
+        <v>0.9694117647058823</v>
+      </c>
+      <c r="O76">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="P76">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="Q76">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="R76">
+        <v>0.9716312056737588</v>
+      </c>
+      <c r="S76">
+        <v>0.9688051795173631</v>
+      </c>
+      <c r="T76">
+        <v>0.01471678722380667</v>
+      </c>
+      <c r="U76">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V76">
+        <v>0.00756683123321493</v>
+      </c>
+      <c r="W76">
+        <v>0.001793262798042058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77">
+        <v>0.006600379943847656</v>
+      </c>
+      <c r="B77">
+        <v>0.0008000850677490235</v>
+      </c>
+      <c r="C77">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D77">
+        <v>0.9651279524105141</v>
+      </c>
+      <c r="E77">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s">
+        <v>112</v>
+      </c>
+      <c r="I77">
+        <v>46</v>
+      </c>
+      <c r="J77">
+        <v>0.9694117647058823</v>
+      </c>
+      <c r="K77">
+        <v>0.9628756629345905</v>
+      </c>
+      <c r="L77">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="M77">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N77">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="O77">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="P77">
+        <v>0.9787735849056604</v>
+      </c>
+      <c r="Q77">
+        <v>0.9611307420494699</v>
+      </c>
+      <c r="R77">
+        <v>0.9692671394799054</v>
+      </c>
+      <c r="S77">
+        <v>0.9640965273690406</v>
+      </c>
+      <c r="T77">
+        <v>0.0004897845816770382</v>
+      </c>
+      <c r="U77">
+        <v>0.0004000425445315194</v>
+      </c>
+      <c r="V77">
+        <v>0.0116553439225903</v>
+      </c>
+      <c r="W77">
+        <v>0.00320618875687014</v>
       </c>
     </row>
   </sheetData>
